--- a/twilight-zone-in-school/checklist.xlsx
+++ b/twilight-zone-in-school/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/twilight-zone-in-school/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF680C36-9E01-9B44-ABEA-35B3868832F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A5DCF25-0766-0345-A5D1-4CCD436BE9C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{1CE2D56B-60D1-F544-8496-7A1EB416D151}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -59,13 +59,13 @@
     <t>Hobby Japan</t>
   </si>
   <si>
-    <t>twilight_zone_schoo.jpg</t>
-  </si>
-  <si>
     <t>product_type</t>
   </si>
   <si>
     <t>rulebook</t>
+  </si>
+  <si>
+    <t>twilight_zone_school.jpg</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,7 +456,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
